--- a/statistics/HistoricalDistanceData/historical_distance/Q48723698-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q48723698-en.xlsx
@@ -31,25 +31,25 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Peru recovers mass grave bodies</t>
+  </si>
+  <si>
     <t>Peruvians seek relatives in mass grave</t>
   </si>
   <si>
-    <t>Peru recovers mass grave bodies</t>
+    <t>2008-05-26T01:56:55UTC</t>
   </si>
   <si>
     <t>2008-06-12T02:17:16UTC</t>
   </si>
   <si>
-    <t>2008-05-26T01:56:55UTC</t>
-  </si>
-  <si>
     <t>day_31_beyond</t>
   </si>
   <si>
+    <t>http://news.bbc.co.uk/2/hi/americas/7419735.stm</t>
+  </si>
+  <si>
     <t>http://news.bbc.co.uk/2/hi/americas/7449079.stm</t>
-  </si>
-  <si>
-    <t>http://news.bbc.co.uk/2/hi/americas/7419735.stm</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>8929</v>
+        <v>8912</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -468,7 +468,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>8912</v>
+        <v>8929</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
